--- a/ExtractSREO/Standardized-Copy of Carlos & Vera Koo - RE Schedule - March 2022 v.xlsx
+++ b/ExtractSREO/Standardized-Copy of Carlos & Vera Koo - RE Schedule - March 2022 v.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
           <t>359 Austin Avenue</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Atherton</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>SFR</t>
@@ -612,11 +612,7 @@
           <t xml:space="preserve">$12,000,000 </t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
@@ -629,17 +625,17 @@
           <t>98 Kilroy Way</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Atherton</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>SFR</t>
@@ -662,11 +658,7 @@
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Feb-49</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
@@ -689,11 +681,7 @@
           <t xml:space="preserve">$9,000,000 </t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>37.80%</t>
-        </is>
-      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
@@ -706,17 +694,17 @@
           <t>96 Tusaloosa Ave</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>Atherton</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>SFR</t>
@@ -739,11 +727,7 @@
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Jul-34</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
@@ -766,11 +750,7 @@
           <t xml:space="preserve">$8,500,000 </t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>35.40%</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
@@ -783,17 +763,17 @@
           <t>16 Stern Grove Court</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>San Francisco</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>Condo</t>
@@ -835,11 +815,7 @@
           <t xml:space="preserve">$1,067,919 </t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -852,17 +828,17 @@
           <t>Hillcrest Apartments</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Hayward</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>MF</t>
@@ -885,11 +861,7 @@
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2048</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
@@ -912,11 +884,7 @@
           <t xml:space="preserve">$50,769,231 </t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>54.90%</t>
-        </is>
-      </c>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -929,17 +897,17 @@
           <t>Westwinds Apartments</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>Livermore</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>MF</t>
@@ -962,11 +930,7 @@
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2034</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
@@ -989,11 +953,7 @@
           <t xml:space="preserve">$22,000,000 </t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>63.60%</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
@@ -1006,17 +966,17 @@
           <t>West Park Apartments</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>San Jose</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>MF</t>
@@ -1039,11 +999,7 @@
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2053</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
@@ -1066,11 +1022,7 @@
           <t xml:space="preserve">$88,000,000 </t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>64.90%</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
@@ -1083,17 +1035,17 @@
           <t xml:space="preserve">Pacific View Apartments </t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>Pacifica</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>MF</t>
@@ -1116,11 +1068,7 @@
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2032</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
@@ -1143,11 +1091,7 @@
           <t xml:space="preserve">$27,600,000 </t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>57.00%</t>
-        </is>
-      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
@@ -1160,17 +1104,17 @@
           <t>201 Squaw Peak Rd. #353</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>UT</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>Olympic Valley</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>Condo</t>
@@ -1216,11 +1160,7 @@
           <t xml:space="preserve">$750,000 </t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
@@ -1233,17 +1173,17 @@
           <t>201 Squaw Peak Rd. #351</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>UT</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>Olympic Valley</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>Condo</t>
@@ -1289,11 +1229,7 @@
           <t xml:space="preserve">$740,000 </t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
@@ -1306,17 +1242,17 @@
           <t>201 Squaw Peak Rd. #349</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>UT</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>Olympic Valley</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>Condo</t>
@@ -1362,11 +1298,7 @@
           <t xml:space="preserve">$750,000 </t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
@@ -1379,17 +1311,17 @@
           <t xml:space="preserve">1794 Seal Way </t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>Byron</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>SFR</t>
@@ -1435,11 +1367,7 @@
           <t xml:space="preserve">$1,012,000 </t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
@@ -1452,17 +1380,17 @@
           <t>101 Alma Street</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>Palo Alto</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>SFR</t>
@@ -1508,11 +1436,7 @@
           <t xml:space="preserve">$1,250,000 </t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
@@ -1525,17 +1449,17 @@
           <t>21 Willow Road #22</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>Menlo Park</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>Condo</t>
@@ -1577,11 +1501,7 @@
           <t xml:space="preserve">$750,000 </t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
@@ -1594,17 +1514,17 @@
           <t>3179 Chivas Court</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>San Jose</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>Condo</t>
@@ -1650,11 +1570,7 @@
           <t xml:space="preserve">$1,183,572 </t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
@@ -1667,17 +1583,17 @@
           <t>360 East Desert Inn Rd #1702</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>Las Vegas</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>Condo</t>
@@ -1723,11 +1639,7 @@
           <t xml:space="preserve">$650,000 </t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
@@ -1740,17 +1652,17 @@
           <t>103 Tennyson Avenue</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>Palo Alto</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>MF</t>
@@ -1773,11 +1685,7 @@
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2031</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
@@ -1800,11 +1708,7 @@
           <t xml:space="preserve">$3,310,862 </t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>39.30%</t>
-        </is>
-      </c>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
@@ -1817,17 +1721,17 @@
           <t>1751 Alma St.</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>Palo Alto</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>MF</t>
@@ -1850,11 +1754,7 @@
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2026</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
@@ -1877,11 +1777,7 @@
           <t xml:space="preserve">$2,517,087 </t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>32.00%</t>
-        </is>
-      </c>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
@@ -1894,17 +1790,17 @@
           <t>1129 Willow Rd.</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>Menlo Park</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>MF</t>
@@ -1955,17 +1851,17 @@
           <t>1311 Mills Street</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>Menlo Park</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>MF</t>
@@ -2016,17 +1912,17 @@
           <t>721-737 Redwood Ave.</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>Redwood City</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>MF</t>
@@ -2072,11 +1968,7 @@
           <t xml:space="preserve">$3,602,212 </t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
@@ -2089,17 +1981,17 @@
           <t>Sequoia Meadows</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>Las Vegas</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>MF</t>
@@ -2122,11 +2014,7 @@
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2028</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
@@ -2149,11 +2037,7 @@
           <t xml:space="preserve">$32,000,000 </t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>42.00%</t>
-        </is>
-      </c>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
@@ -2166,17 +2050,17 @@
           <t>Desert Manor</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>Las Vegas</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>MF</t>
@@ -2222,11 +2106,7 @@
           <t xml:space="preserve">$19,000,000 </t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
@@ -2239,17 +2119,17 @@
           <t>772 Patridge Ave</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>Menlo Park</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>MF</t>
@@ -2272,11 +2152,7 @@
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
@@ -2299,11 +2175,7 @@
           <t xml:space="preserve">$3,500,000 </t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>53.20%</t>
-        </is>
-      </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
@@ -2316,17 +2188,17 @@
           <t>Turnberry #1602</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>Las Vegas</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>MF</t>
@@ -2372,11 +2244,7 @@
           <t xml:space="preserve">$950,000 </t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
@@ -2389,17 +2257,17 @@
           <t>428 Encinal Ave</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>Menlo Park</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>SFR</t>
@@ -2445,11 +2313,7 @@
           <t xml:space="preserve">$850,000 </t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
@@ -2462,17 +2326,17 @@
           <t>Signature at MGM 125 E Harmon Ave 3804</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>Las Vegas</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>Condo</t>
@@ -2518,11 +2382,7 @@
           <t xml:space="preserve">$500,000 </t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
@@ -2535,17 +2395,17 @@
           <t>Signature at MGM 125 E Harmon Ave 3802</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>Las Vegas</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>Condo</t>
@@ -2591,11 +2451,7 @@
           <t xml:space="preserve">$300,000 </t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
@@ -2608,17 +2464,17 @@
           <t>Spanish Palsm #1102, 5250 Rainbow Blvd 1102</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>Las Vegas</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>Condo</t>
@@ -2664,11 +2520,7 @@
           <t xml:space="preserve">$244,886 </t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
@@ -2681,17 +2533,17 @@
           <t>Spanish Palms #1164 520 S Rainbow Blvd 1102</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>Las Vegas</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>Condo</t>
@@ -2733,11 +2585,7 @@
           <t xml:space="preserve">$264,427 </t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
@@ -2750,17 +2598,17 @@
           <t>Spanish Palms #2515 5250 S Rainbow Blvd 2151</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>Las Vegas</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>Condo</t>
@@ -2802,11 +2650,7 @@
           <t xml:space="preserve">$191,660 </t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
@@ -2819,17 +2663,17 @@
           <t>Spanish Palms #2071 5250 S Rainbow Blvd 2071</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>Las Vegas</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>Condo</t>
@@ -2871,11 +2715,7 @@
           <t xml:space="preserve">$248,757 </t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
@@ -2888,17 +2728,17 @@
           <t>Spanish Palms #2081 5250 S Rainbow Blvd 2081</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>Las Vegas</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>Condo</t>
@@ -2940,11 +2780,7 @@
           <t xml:space="preserve">$193,385 </t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2957,17 +2793,17 @@
           <t>8616 Shady Pines Dr</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>Las Vegas</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>SFR</t>
@@ -3013,11 +2849,7 @@
           <t xml:space="preserve">$304,196 </t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
@@ -3030,17 +2862,17 @@
           <t>4048 Knoll Ridge Ave.</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
           <t>Las Vegas</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>SFR</t>
@@ -3086,11 +2918,7 @@
           <t xml:space="preserve">$299,683 </t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
@@ -3103,17 +2931,17 @@
           <t>4540 Cedarspring Dr</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>Las Vegas</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>SFR</t>
@@ -3159,11 +2987,7 @@
           <t xml:space="preserve">$231,915 </t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
@@ -3176,17 +3000,17 @@
           <t>20 Madison Street</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr">
         <is>
           <t>San Mateo</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>Condo</t>
@@ -3232,11 +3056,7 @@
           <t xml:space="preserve">$1,209,682 </t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
@@ -3249,17 +3069,17 @@
           <t>1665 Whitwood Lane</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>Campbell</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>MF</t>
@@ -3282,11 +3102,7 @@
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>2030</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
@@ -3309,11 +3125,7 @@
           <t xml:space="preserve">$3,645,857 </t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>28.00%</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -3326,17 +3138,17 @@
           <t>1667 Whitwood Lane</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>Campbell</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>MF</t>
@@ -3383,17 +3195,17 @@
           <t>1669 Whitwood Lane</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>Campbell</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>MF</t>
@@ -3440,17 +3252,17 @@
           <t>525 E. St Louis Ave</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr">
         <is>
           <t>Las Vegas</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>MF</t>
@@ -3473,11 +3285,7 @@
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
@@ -3500,11 +3308,7 @@
           <t xml:space="preserve">$8,300,000 </t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>49.50%</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -3517,17 +3321,17 @@
           <t>Beach Villas at Ko-O'lina</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>HI</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr">
         <is>
           <t>Kapolei</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>HI</t>
-        </is>
-      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>MF</t>
@@ -3573,11 +3377,7 @@
           <t xml:space="preserve">$1,549,000 </t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
@@ -3590,17 +3390,17 @@
           <t>Horizons West Apartments</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>Pacifica</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t>MF</t>
@@ -3623,11 +3423,7 @@
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>2032</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
@@ -3650,11 +3446,7 @@
           <t xml:space="preserve">$38,500,000 </t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>58.00%</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
@@ -3667,17 +3459,17 @@
           <t>1909 Santa Paula</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>Las Vegas</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
           <t>MF</t>
@@ -3723,11 +3515,7 @@
           <t xml:space="preserve">$2,000,000 </t>
         </is>
       </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
